--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp3-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp3-Acvr2b.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N2">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q2">
-        <v>0.9104148350181112</v>
+        <v>2.554719821213556</v>
       </c>
       <c r="R2">
-        <v>8.193733515163</v>
+        <v>22.99247839092201</v>
       </c>
       <c r="S2">
-        <v>0.08748333783204773</v>
+        <v>0.1971784018447014</v>
       </c>
       <c r="T2">
-        <v>0.08748333783204772</v>
+        <v>0.1971784018447014</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q3">
         <v>2.344239636903112</v>
@@ -632,10 +632,10 @@
         <v>21.09815673212801</v>
       </c>
       <c r="S3">
-        <v>0.2252620456370223</v>
+        <v>0.1809331188912865</v>
       </c>
       <c r="T3">
-        <v>0.2252620456370223</v>
+        <v>0.1809331188912865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>6.029036</v>
       </c>
       <c r="O4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q4">
         <v>3.456747120707111</v>
@@ -694,10 +694,10 @@
         <v>31.110724086364</v>
       </c>
       <c r="S4">
-        <v>0.3321648160036437</v>
+        <v>0.2667986787367258</v>
       </c>
       <c r="T4">
-        <v>0.3321648160036437</v>
+        <v>0.2667986787367258</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N5">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O5">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P5">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q5">
-        <v>0.5012775769835555</v>
+        <v>1.406637625609778</v>
       </c>
       <c r="R5">
-        <v>4.511498192852</v>
+        <v>12.659738630488</v>
       </c>
       <c r="S5">
-        <v>0.04816863030797418</v>
+        <v>0.1085671143619221</v>
       </c>
       <c r="T5">
-        <v>0.04816863030797418</v>
+        <v>0.1085671143619221</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O6">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P6">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q6">
         <v>1.290746503523556</v>
@@ -818,10 +818,10 @@
         <v>11.616718531712</v>
       </c>
       <c r="S6">
-        <v>0.1240300663829135</v>
+        <v>0.0996224050238564</v>
       </c>
       <c r="T6">
-        <v>0.1240300663829136</v>
+        <v>0.09962240502385641</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>6.029036</v>
       </c>
       <c r="O7">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P7">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q7">
         <v>1.903296996339555</v>
@@ -880,10 +880,10 @@
         <v>17.129672967056</v>
       </c>
       <c r="S7">
-        <v>0.1828911038363986</v>
+        <v>0.1469002811415078</v>
       </c>
       <c r="T7">
-        <v>0.1828911038363986</v>
+        <v>0.1469002811415078</v>
       </c>
     </row>
   </sheetData>
